--- a/Data/xlsxFile.xlsx
+++ b/Data/xlsxFile.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PsCode\PsJulia\JuliaTutorialExtra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSoderlind\PSDataE\JL\JuliaTutorial\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC6091F-B5FE-4EB3-BC7F-E6E3F1E05188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13" yWindow="39" windowWidth="11468" windowHeight="9530"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,19 +22,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>^GSPC</t>
-  </si>
-  <si>
     <t>DTB3</t>
   </si>
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>GSPC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,9 +85,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -124,9 +125,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -161,7 +162,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,7 +197,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -369,136 +370,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>18266</v>
+        <v>18269</v>
       </c>
       <c r="B2">
-        <v>16.66</v>
+        <v>16.98</v>
       </c>
       <c r="C2">
         <v>-999.99</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>18267</v>
+        <v>18272</v>
       </c>
       <c r="B3">
-        <v>16.850000000000001</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="C3">
         <v>-999.99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>18268</v>
+        <v>18273</v>
       </c>
       <c r="B4">
-        <v>16.93</v>
+        <v>17.03</v>
       </c>
       <c r="C4">
-        <v>-999.99</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>18269</v>
+        <v>18274</v>
       </c>
       <c r="B5">
-        <v>16.98</v>
+        <v>17.09</v>
       </c>
       <c r="C5">
-        <v>-999.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>18272</v>
-      </c>
-      <c r="B6">
-        <v>17.079999999999998</v>
-      </c>
-      <c r="C6">
-        <v>-999.99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>18273</v>
-      </c>
-      <c r="B7">
-        <v>17.03</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>18274</v>
-      </c>
-      <c r="B8">
-        <v>17.09</v>
-      </c>
-      <c r="C8">
         <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>18275</v>
-      </c>
-      <c r="B9">
-        <v>16.760000000000002</v>
-      </c>
-      <c r="C9">
-        <v>-999.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>18276</v>
-      </c>
-      <c r="B10">
-        <v>16.670000000000002</v>
-      </c>
-      <c r="C10">
-        <v>-999.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>18279</v>
-      </c>
-      <c r="B11">
-        <v>16.72</v>
-      </c>
-      <c r="C11">
-        <v>-999.99</v>
       </c>
     </row>
   </sheetData>
